--- a/2023/A0)RoutineWork/2023工作目标计划.xlsx
+++ b/2023/A0)RoutineWork/2023工作目标计划.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\10 MRD\2023\A0)RoutineWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F4D877-D9A0-43A8-8E06-EDEE0084F16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D485122-44C9-465C-997D-B19233A4B9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,7 @@
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="198">
   <si>
     <t>调研结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,18 +168,6 @@
   </si>
   <si>
     <t>Beamforming\远场拾音\AEC\声源定位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>过去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -402,10 +391,6 @@
       </rPr>
       <t>汽车类、127dB SNR、768kHz、四通道、PDM 输入到 TDM 或 I²S 输出转换器</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调研国内外异军突起/新兴的DSP芯片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1058,6 +1043,10 @@
 2）协助销售端的技术支持，推广芯片和成熟方案
 3）反馈市场所有有用信息给R&amp;D
 4）渠道端定期培训（代理商/方案商的FAE推广培训）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调研国内新兴 DSP芯片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1478,6 +1467,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1485,18 +1486,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1691,25 +1680,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>1219200</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>441960</xdr:rowOff>
+          <xdr:colOff>1186180</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>53340</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>1813560</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>891540</xdr:rowOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>541020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4100" name="Object 4" hidden="1">
+            <xdr:cNvPr id="4102" name="Object 6" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4100"/>
+                  <a14:compatExt spid="_x0000_s4102"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C71B640-6EF8-510B-97DD-EDC914232780}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1730,65 +1719,23 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>1249680</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>99060</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>1813560</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>518160</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4101" name="Object 5" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4101"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005100000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1939,6 +1886,16 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <oleLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" progId="PowerPoint.Show.12">
+    <oleItems>
+      <oleItem name="'" icon="1" preferPic="1"/>
+    </oleItems>
+  </oleLink>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <oleLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" progId="PowerPoint.Show.12">
     <oleItems>
@@ -2214,7 +2171,7 @@
   <dimension ref="B1:I22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2234,183 +2191,183 @@
   <sheetData>
     <row r="1" spans="2:9" ht="7.2" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:9" s="12" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
       <c r="F2" s="33"/>
-      <c r="G2" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" s="43"/>
+      <c r="G2" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="40"/>
       <c r="I2" s="34" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:9" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="38"/>
+      <c r="B3" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="42"/>
       <c r="F3" s="32" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:9" s="6" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>53</v>
+      <c r="B4" s="42">
+        <v>1</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>50</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="2:9" s="6" customFormat="1" ht="103.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="18" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H5" s="21"/>
-      <c r="I5" s="41" t="s">
-        <v>71</v>
+      <c r="I5" s="38" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="2:9" s="6" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="21" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="I6" s="41"/>
+        <v>154</v>
+      </c>
+      <c r="I6" s="38"/>
     </row>
     <row r="7" spans="2:9" s="6" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" s="40" t="s">
+      <c r="B7" s="42">
+        <v>2</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="44" t="s">
-        <v>97</v>
-      </c>
       <c r="H7" s="35" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="2:9" s="6" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="44"/>
       <c r="E8" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F8" s="10"/>
-      <c r="G8" s="44"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I8" s="16"/>
     </row>
     <row r="9" spans="2:9" s="6" customFormat="1" ht="53.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="18" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="22" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I9" s="16"/>
     </row>
     <row r="10" spans="2:9" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="38"/>
-      <c r="C10" s="39"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="2:9" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="21"/>
@@ -2418,52 +2375,52 @@
       <c r="I11" s="16"/>
     </row>
     <row r="12" spans="2:9" s="6" customFormat="1" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>43</v>
+      <c r="B12" s="42">
+        <v>3</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>40</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
       <c r="I12" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:9" s="6" customFormat="1" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="18" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="2:9" s="6" customFormat="1" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="18" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
@@ -2480,27 +2437,21 @@
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E19" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E21" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E22" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B11"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C7:C11"/>
@@ -2508,6 +2459,12 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D7:D8"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2571,52 +2528,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject dvAspect="DVASPECT_ICON" link="[3]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="4100">
+        <oleObject progId="PowerPoint.Show.12" dvAspect="DVASPECT_ICON" link="[5]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="4102">
           <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>1219200</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>441960</xdr:rowOff>
+                <xdr:colOff>1188720</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>53340</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1813560</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>891540</xdr:rowOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>541020</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject dvAspect="DVASPECT_ICON" link="[3]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="4100"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject dvAspect="DVASPECT_ICON" link="[4]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="4101">
-          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1249680</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>99060</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1813560</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>518160</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject dvAspect="DVASPECT_ICON" link="[4]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="4101"/>
+        <oleObject progId="PowerPoint.Show.12" dvAspect="DVASPECT_ICON" link="[5]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="4102"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -2628,7 +2560,7 @@
   <dimension ref="B2:H11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2636,7 +2568,7 @@
     <col min="1" max="1" width="2.21875" style="6" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.44140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="48.33203125" style="6" customWidth="1"/>
     <col min="5" max="5" width="30.33203125" style="6" customWidth="1"/>
     <col min="6" max="6" width="38.5546875" style="6" customWidth="1"/>
     <col min="7" max="7" width="28.33203125" style="6" customWidth="1"/>
@@ -2647,7 +2579,7 @@
   <sheetData>
     <row r="2" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="45" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D2" s="45"/>
       <c r="E2" s="45"/>
@@ -2657,10 +2589,10 @@
     </row>
     <row r="3" spans="2:8" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="48" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D3" s="47"/>
       <c r="E3" s="47"/>
@@ -2674,19 +2606,19 @@
         <v>17</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2695,19 +2627,19 @@
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2716,10 +2648,10 @@
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -2731,10 +2663,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -2746,7 +2678,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -2755,16 +2687,16 @@
     </row>
     <row r="9" spans="2:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="48" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F9" s="4"/>
     </row>
@@ -2774,10 +2706,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F10" s="4"/>
     </row>
@@ -2805,8 +2737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA4CE96-8EEB-4873-83F6-E66951F2F660}">
   <dimension ref="C3:H38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2819,7 +2751,7 @@
   <sheetData>
     <row r="3" spans="3:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="50" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D3" s="50"/>
       <c r="E3" s="50"/>
@@ -2830,10 +2762,10 @@
     <row r="4" spans="3:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C4" s="29"/>
       <c r="D4" s="29" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
@@ -2841,19 +2773,19 @@
     </row>
     <row r="5" spans="3:8" ht="100.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="29" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="29" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
@@ -2863,7 +2795,7 @@
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="29" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
@@ -2873,7 +2805,7 @@
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="29" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
@@ -2883,7 +2815,7 @@
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="29" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
@@ -2893,7 +2825,7 @@
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="30" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
@@ -2927,7 +2859,7 @@
     </row>
     <row r="17" spans="3:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="50" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D17" s="50"/>
       <c r="E17" s="50"/>
@@ -2937,16 +2869,16 @@
     </row>
     <row r="18" spans="3:8" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="29" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
@@ -2961,10 +2893,10 @@
     </row>
     <row r="20" spans="3:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="49" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="36"/>
@@ -2974,7 +2906,7 @@
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C21" s="49"/>
       <c r="D21" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="36"/>
@@ -2984,7 +2916,7 @@
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C22" s="49"/>
       <c r="D22" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="36"/>
@@ -2993,10 +2925,10 @@
     </row>
     <row r="23" spans="3:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="49" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="36"/>
@@ -3006,7 +2938,7 @@
     <row r="24" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C24" s="49"/>
       <c r="D24" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="36"/>
@@ -3016,7 +2948,7 @@
     <row r="25" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C25" s="49"/>
       <c r="D25" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="36"/>
@@ -3025,10 +2957,10 @@
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C26" s="49" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="36"/>
@@ -3038,7 +2970,7 @@
     <row r="27" spans="3:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="C27" s="49"/>
       <c r="D27" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="36"/>
@@ -3048,7 +2980,7 @@
     <row r="28" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C28" s="49"/>
       <c r="D28" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="36"/>
@@ -3058,7 +2990,7 @@
     <row r="29" spans="3:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="C29" s="49"/>
       <c r="D29" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="36"/>
@@ -3068,7 +3000,7 @@
     <row r="30" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C30" s="49"/>
       <c r="D30" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="36"/>
@@ -3078,7 +3010,7 @@
     <row r="31" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C31" s="49"/>
       <c r="D31" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="36"/>
@@ -3088,7 +3020,7 @@
     <row r="32" spans="3:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="49"/>
       <c r="D32" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="36"/>
@@ -3098,7 +3030,7 @@
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33" s="49"/>
       <c r="D33" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="36"/>
@@ -3108,7 +3040,7 @@
     <row r="34" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C34" s="49"/>
       <c r="D34" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="36"/>
@@ -3117,10 +3049,10 @@
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C35" s="49" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="36"/>
@@ -3130,7 +3062,7 @@
     <row r="36" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C36" s="49"/>
       <c r="D36" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="36"/>
@@ -3140,7 +3072,7 @@
     <row r="37" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C37" s="49"/>
       <c r="D37" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="36"/>
@@ -3150,7 +3082,7 @@
     <row r="38" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C38" s="49"/>
       <c r="D38" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="36"/>
@@ -3205,8 +3137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Q49"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3233,7 +3165,7 @@
   <sheetData>
     <row r="2" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="51" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C2" s="52"/>
       <c r="D2" s="52"/>
@@ -3292,13 +3224,13 @@
         <v>17</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D5" s="63" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E5" s="63" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F5" s="63"/>
       <c r="G5" s="63" t="s">
@@ -3311,7 +3243,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K5" s="63" t="s">
         <v>0</v>
@@ -3333,7 +3265,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G6" s="63"/>
       <c r="H6" s="62"/>
@@ -3394,10 +3326,10 @@
         <v>11</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>11</v>
@@ -3415,17 +3347,17 @@
         <v>29</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -3453,23 +3385,23 @@
         <v>29</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E9" s="5">
         <v>2</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>12</v>
@@ -3487,7 +3419,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
@@ -3495,15 +3427,15 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>12</v>
@@ -3523,7 +3455,7 @@
         <v>29</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
@@ -3531,17 +3463,17 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O11" s="4"/>
       <c r="P11" s="5"/>
@@ -3555,7 +3487,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
@@ -3563,7 +3495,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -3575,7 +3507,7 @@
         <v>7</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O12" s="4"/>
       <c r="P12" s="5"/>
@@ -3597,7 +3529,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -3607,7 +3539,7 @@
         <v>7</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="O13" s="4"/>
       <c r="P13" s="5"/>
@@ -3621,7 +3553,7 @@
         <v>29</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E14" s="5">
         <v>1</v>
@@ -3629,14 +3561,14 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N14" s="5"/>
       <c r="O14" s="4"/>
@@ -3659,7 +3591,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -3689,7 +3621,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -3699,7 +3631,7 @@
         <v>7</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O16" s="4"/>
       <c r="P16" s="5"/>
@@ -3713,7 +3645,7 @@
         <v>29</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
@@ -3725,10 +3657,10 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N17" s="5"/>
       <c r="O17" s="4"/>
@@ -3743,7 +3675,7 @@
         <v>29</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E18" s="5">
         <v>1</v>
@@ -3768,10 +3700,10 @@
         <v>11</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -3781,7 +3713,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
@@ -3794,10 +3726,10 @@
         <v>12</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -3818,10 +3750,10 @@
         <v>13</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -3842,10 +3774,10 @@
         <v>14</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -3866,10 +3798,10 @@
         <v>15</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -3890,10 +3822,10 @@
         <v>16</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -3914,10 +3846,10 @@
         <v>17</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="10"/>
@@ -3938,10 +3870,10 @@
         <v>18</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -3962,10 +3894,10 @@
         <v>19</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -3973,7 +3905,7 @@
       <c r="H27" s="5"/>
       <c r="I27" s="4"/>
       <c r="J27" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -3988,7 +3920,7 @@
         <v>20</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -4006,18 +3938,20 @@
       <c r="Q28" s="4"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
+      <c r="B29" s="5">
+        <v>21</v>
+      </c>
       <c r="C29" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="E29" s="5">
         <v>1</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -4157,7 +4091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F740A64-CE68-4A8E-8533-190C409C4831}">
   <dimension ref="C3:G17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -4177,16 +4111,16 @@
         <v>17</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E3" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>134</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="4" spans="3:7" ht="55.2" x14ac:dyDescent="0.25">
@@ -4194,16 +4128,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
